--- a/ResultadoEleicoesDistritos/LEIRIA_CALDAS DA RAINHA.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_CALDAS DA RAINHA.xlsx
@@ -597,64 +597,64 @@
         <v>13555</v>
       </c>
       <c r="H2" t="n">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="I2" t="n">
-        <v>1380</v>
+        <v>1246</v>
       </c>
       <c r="J2" t="n">
-        <v>5464</v>
+        <v>5517</v>
       </c>
       <c r="K2" t="n">
         <v>28</v>
       </c>
       <c r="L2" t="n">
-        <v>1546</v>
+        <v>1558</v>
       </c>
       <c r="M2" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="N2" t="n">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
         <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="S2" t="n">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="T2" t="n">
-        <v>1038</v>
+        <v>995</v>
       </c>
       <c r="U2" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="V2" t="n">
-        <v>8763</v>
+        <v>8740</v>
       </c>
       <c r="W2" t="n">
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>8669</v>
+        <v>8760</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA2" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
